--- a/test/xlsx/formula.xlsx
+++ b/test/xlsx/formula.xlsx
@@ -5,7 +5,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1" state="visible"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId2" state="visible"/>
   </sheets>
 </workbook>
 </file>
